--- a/xlsx/克里斯·安德森_intext.xlsx
+++ b/xlsx/克里斯·安德森_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="136">
   <si>
     <t>克里斯·安德森</t>
   </si>
@@ -26,16 +26,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%89%8D%E9%8B%92</t>
   </si>
   <si>
-    <t>大前鋒</t>
-  </si>
-  <si>
-    <t>政策_政策_維基百科_克里斯·安德森</t>
+    <t>大前锋</t>
+  </si>
+  <si>
+    <t>政策_政策_维基百科_克里斯·安德森</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%8B%92_(%E7%B1%83%E7%90%83)</t>
   </si>
   <si>
-    <t>中鋒 (籃球)</t>
+    <t>中锋 (篮球)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA</t>
@@ -53,13 +53,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%95%B7%E7%81%98_(%E5%8A%A0%E5%88%A9%E7%A6%8F%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>長灘 (加利福尼亞州)</t>
+    <t>长滩 (加利福尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
@@ -83,7 +83,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E7%94%B7%E5%AD%90%E7%B1%83%E7%90%83%E8%81%AF%E8%B3%BD</t>
   </si>
   <si>
-    <t>中國男子籃球聯賽</t>
+    <t>中国男子篮球联赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBDL</t>
@@ -95,31 +95,31 @@
     <t>https://zh.wikipedia.org/wiki/2001-02_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>2001-02 NBA賽季</t>
+    <t>2001-02 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2003-04_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>2003-04 NBA賽季</t>
+    <t>2003-04 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B%E9%87%91%E5%A1%8A</t>
   </si>
   <si>
-    <t>丹佛金塊</t>
+    <t>丹佛金块</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2005-06_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>2005-06 NBA賽季</t>
+    <t>2005-06 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2007-08_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>2007-08 NBA賽季</t>
+    <t>2007-08 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%A5%A5%E5%B0%94%E8%89%AF%E9%B9%88%E9%B9%95</t>
@@ -149,7 +149,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86%E7%86%B1%E7%81%AB</t>
   </si>
   <si>
-    <t>邁阿密熱火</t>
+    <t>迈阿密热火</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2016-17_NBA%E8%B5%9B%E5%AD%A3</t>
@@ -167,25 +167,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E5%A4%AB%E8%98%AD%E9%A8%8E%E5%A3%AB</t>
   </si>
   <si>
-    <t>克里夫蘭騎士</t>
+    <t>克里夫兰骑士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9%E9%BB%83%E8%9C%82</t>
   </si>
   <si>
-    <t>夏洛特黃蜂</t>
+    <t>夏洛特黄蜂</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/NBA%E7%B8%BD%E5%86%A0%E8%BB%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>NBA總冠軍列表</t>
+    <t>NBA总冠军列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B1%83%E7%90%83</t>
   </si>
   <si>
-    <t>籃球</t>
+    <t>篮球</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1999%E5%B9%B4NBA%E9%80%89%E7%A7%80</t>
@@ -203,19 +203,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E4%BD%9B%E9%87%91%E5%A1%8A%E9%9A%8A</t>
   </si>
   <si>
-    <t>丹佛金塊隊</t>
+    <t>丹佛金块队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%90%E5%A5%A7%E8%89%AF%E9%BB%83%E8%9C%82%E9%9A%8A</t>
   </si>
   <si>
-    <t>紐奧良黃蜂隊</t>
+    <t>纽奥良黄蜂队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%82%81%E9%98%BF%E5%AF%86%E7%86%B1%E7%81%AB%E9%9A%8A</t>
   </si>
   <si>
-    <t>邁阿密熱火隊</t>
+    <t>迈阿密热火队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AF%AE%E6%9D%BF%E7%90%83</t>
@@ -251,25 +251,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%93%8B%E5%B8%BD</t>
   </si>
   <si>
-    <t>蓋帽</t>
+    <t>盖帽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2002-03_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>2002-03 NBA賽季</t>
+    <t>2002-03 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2004-05_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>2004-05 NBA賽季</t>
+    <t>2004-05 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2008-09_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>2008-09 NBA賽季</t>
+    <t>2008-09 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2009-10_NBA%E8%B5%9B%E5%AD%A3</t>
@@ -281,19 +281,19 @@
     <t>https://zh.wikipedia.org/wiki/2010-11_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>2010-11 NBA賽季</t>
+    <t>2010-11 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2013-14_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>2013-14 NBA賽季</t>
+    <t>2013-14 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014-15_NBA%E8%B3%BD%E5%AD%A3</t>
   </si>
   <si>
-    <t>2014-15 NBA賽季</t>
+    <t>2014-15 NBA赛季</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9B%BC%E6%96%90%E6%96%AF%E7%81%B0%E7%86%8A</t>
@@ -305,31 +305,31 @@
     <t>https://zh.wikipedia.org/wiki/2009%E5%B9%B4NBA%E5%AD%A3%E5%BE%8C%E8%B3%BD</t>
   </si>
   <si>
-    <t>2009年NBA季後賽</t>
+    <t>2009年NBA季后赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2010%E5%B9%B4NBA%E5%AD%A3%E5%BE%8C%E8%B3%BD</t>
   </si>
   <si>
-    <t>2010年NBA季後賽</t>
+    <t>2010年NBA季后赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2011%E5%B9%B4NBA%E5%AD%A3%E5%BE%8C%E8%B3%BD</t>
   </si>
   <si>
-    <t>2011年NBA季後賽</t>
+    <t>2011年NBA季后赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/2014%E5%B9%B4NBA%E5%AD%A3%E5%BE%8C%E8%B3%BD</t>
   </si>
   <si>
-    <t>2014年NBA季後賽</t>
+    <t>2014年NBA季后赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ETtoday_%E6%9D%B1%E6%A3%AE%E6%96%B0%E8%81%9E%E9%9B%B2</t>
   </si>
   <si>
-    <t>ETtoday 東森新聞雲</t>
+    <t>ETtoday 东森新闻云</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ESPN</t>
@@ -339,9 +339,6 @@
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BF%88%E9%98%BF%E5%AF%86%E7%83%AD%E7%81%AB</t>
-  </si>
-  <si>
-    <t>迈阿密热火</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%8B%E9%87%8C%E6%96%AF%C2%B7%E6%B3%A2%E4%BB%80</t>
@@ -2681,7 +2678,7 @@
         <v>107</v>
       </c>
       <c r="F66" t="s">
-        <v>108</v>
+        <v>44</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2707,10 +2704,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>108</v>
+      </c>
+      <c r="F67" t="s">
         <v>109</v>
-      </c>
-      <c r="F67" t="s">
-        <v>110</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2736,10 +2733,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>110</v>
+      </c>
+      <c r="F68" t="s">
         <v>111</v>
-      </c>
-      <c r="F68" t="s">
-        <v>112</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2765,10 +2762,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>112</v>
+      </c>
+      <c r="F69" t="s">
         <v>113</v>
-      </c>
-      <c r="F69" t="s">
-        <v>114</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2794,10 +2791,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>114</v>
+      </c>
+      <c r="F70" t="s">
         <v>115</v>
-      </c>
-      <c r="F70" t="s">
-        <v>116</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2823,10 +2820,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>116</v>
+      </c>
+      <c r="F71" t="s">
         <v>117</v>
-      </c>
-      <c r="F71" t="s">
-        <v>118</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -2852,10 +2849,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>118</v>
+      </c>
+      <c r="F72" t="s">
         <v>119</v>
-      </c>
-      <c r="F72" t="s">
-        <v>120</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2881,10 +2878,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>120</v>
+      </c>
+      <c r="F73" t="s">
         <v>121</v>
-      </c>
-      <c r="F73" t="s">
-        <v>122</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -2910,10 +2907,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>122</v>
+      </c>
+      <c r="F74" t="s">
         <v>123</v>
-      </c>
-      <c r="F74" t="s">
-        <v>124</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -2939,10 +2936,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>124</v>
+      </c>
+      <c r="F75" t="s">
         <v>125</v>
-      </c>
-      <c r="F75" t="s">
-        <v>126</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -2968,10 +2965,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>126</v>
+      </c>
+      <c r="F76" t="s">
         <v>127</v>
-      </c>
-      <c r="F76" t="s">
-        <v>128</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -2997,10 +2994,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>128</v>
+      </c>
+      <c r="F77" t="s">
         <v>129</v>
-      </c>
-      <c r="F77" t="s">
-        <v>130</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3026,10 +3023,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>130</v>
+      </c>
+      <c r="F78" t="s">
         <v>131</v>
-      </c>
-      <c r="F78" t="s">
-        <v>132</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3055,10 +3052,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>132</v>
+      </c>
+      <c r="F79" t="s">
         <v>133</v>
-      </c>
-      <c r="F79" t="s">
-        <v>134</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3084,10 +3081,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>134</v>
+      </c>
+      <c r="F80" t="s">
         <v>135</v>
-      </c>
-      <c r="F80" t="s">
-        <v>136</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
